--- a/Proje/excel/1_308_17_TBL104_1.xlsx
+++ b/Proje/excel/1_308_17_TBL104_1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="443">
   <si>
     <t>3,09</t>
   </si>
@@ -375,7 +375,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>%78,38</t>
+    <t>%68,17</t>
   </si>
   <si>
     <t>b</t>
@@ -406,6 +406,9 @@
   </si>
   <si>
     <t>t</t>
+  </si>
+  <si>
+    <t>%71,47</t>
   </si>
   <si>
     <t>120111065</t>
@@ -1720,10 +1723,10 @@
   <sheetData>
     <row r="1" spans="1:33" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>31</v>
@@ -1816,15 +1819,15 @@
         <v>80</v>
       </c>
       <c r="AG1" s="4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C2" s="1">
         <v>3.33</v>
@@ -1922,10 +1925,10 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -2023,10 +2026,10 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C4" s="1">
         <v>3.33</v>
@@ -2124,10 +2127,10 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C5" s="1">
         <v>3.33</v>
@@ -2225,10 +2228,10 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C6" s="1">
         <v>3.33</v>
@@ -2326,10 +2329,10 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C7" s="1">
         <v>3.33</v>
@@ -2427,10 +2430,10 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C8" s="1">
         <v>3.33</v>
@@ -2528,10 +2531,10 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C9" s="1">
         <v>3.33</v>
@@ -2629,10 +2632,10 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C10" s="1">
         <v>3.33</v>
@@ -2730,10 +2733,10 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C11" s="1">
         <v>3.33</v>
@@ -2831,10 +2834,10 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C12" s="1">
         <v>3.33</v>
@@ -2932,10 +2935,10 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C13" s="1">
         <v>3.33</v>
@@ -3033,10 +3036,10 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C14" s="1">
         <v>3.33</v>
@@ -3134,10 +3137,10 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C15" s="1">
         <v>3.33</v>
@@ -3235,10 +3238,10 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C16" s="1">
         <v>3.33</v>
@@ -3336,10 +3339,10 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C17" s="1">
         <v>3.33</v>
@@ -3437,10 +3440,10 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C18" s="1">
         <v>3.33</v>
@@ -3538,10 +3541,10 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C19" s="1">
         <v>3.33</v>
@@ -3639,10 +3642,10 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C20" s="1">
         <v>3.33</v>
@@ -3740,10 +3743,10 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C21" s="1">
         <v>3.33</v>
@@ -3841,10 +3844,10 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C22" s="1">
         <v>3.33</v>
@@ -3942,10 +3945,10 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C23" s="1">
         <v>3.33</v>
@@ -4043,10 +4046,10 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C24" s="1">
         <v>3.33</v>
@@ -4144,10 +4147,10 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C25" s="1">
         <v>3.33</v>
@@ -4245,10 +4248,10 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C26" s="1">
         <v>3.33</v>
@@ -4346,10 +4349,10 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C27" s="1">
         <v>3.33</v>
@@ -4447,10 +4450,10 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C28" s="1">
         <v>3.33</v>
@@ -4548,10 +4551,10 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C29" s="1">
         <v>3.33</v>
@@ -4649,10 +4652,10 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C30" s="1">
         <v>3.33</v>
@@ -4750,10 +4753,10 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C31" s="1">
         <v>3.33</v>
@@ -4851,10 +4854,10 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C32" s="1">
         <v>3.33</v>
@@ -4952,10 +4955,10 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C33" s="1">
         <v>3.33</v>
@@ -5053,10 +5056,10 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C34" s="1">
         <v>0</v>
@@ -5154,10 +5157,10 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C35" s="1">
         <v>3.33</v>
@@ -5255,10 +5258,10 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C36" s="1">
         <v>3.33</v>
@@ -5356,10 +5359,10 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C37" s="1">
         <v>3.33</v>
@@ -5457,10 +5460,10 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C38" s="1">
         <v>3.33</v>
@@ -5558,10 +5561,10 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C39" s="1">
         <v>3.33</v>
@@ -5659,10 +5662,10 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
@@ -5760,10 +5763,10 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C41" s="1">
         <v>3.33</v>
@@ -5861,10 +5864,10 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C42" s="1">
         <v>3.33</v>
@@ -5962,10 +5965,10 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C43" s="1">
         <v>3.33</v>
@@ -6063,10 +6066,10 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C44" s="1">
         <v>3.33</v>
@@ -6164,10 +6167,10 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C45" s="1">
         <v>3.33</v>
@@ -6265,10 +6268,10 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C46" s="1">
         <v>3.33</v>
@@ -6366,10 +6369,10 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C47" s="1">
         <v>3.33</v>
@@ -6467,10 +6470,10 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C48" s="1">
         <v>3.33</v>
@@ -6568,10 +6571,10 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C49" s="1">
         <v>3.33</v>
@@ -6669,10 +6672,10 @@
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C50" s="1">
         <v>3.33</v>
@@ -6770,10 +6773,10 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C51" s="1">
         <v>3.33</v>
@@ -6871,10 +6874,10 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C52" s="1">
         <v>0</v>
@@ -6972,10 +6975,10 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C53" s="1">
         <v>3.33</v>
@@ -7073,10 +7076,10 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C54" s="1">
         <v>3.33</v>
@@ -7174,10 +7177,10 @@
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C55" s="1">
         <v>3.33</v>
@@ -7275,10 +7278,10 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C56" s="1">
         <v>3.33</v>
@@ -7376,10 +7379,10 @@
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C57" s="1">
         <v>3.33</v>
@@ -7477,10 +7480,10 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C58" s="1">
         <v>3.33</v>
@@ -7578,10 +7581,10 @@
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C59" s="1">
         <v>3.33</v>
@@ -7679,10 +7682,10 @@
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C60" s="1">
         <v>3.33</v>
@@ -7780,10 +7783,10 @@
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C61" s="1">
         <v>3.33</v>
@@ -7881,10 +7884,10 @@
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C62" s="1">
         <v>3.33</v>
@@ -7982,10 +7985,10 @@
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C63" s="1">
         <v>3.33</v>
@@ -8083,10 +8086,10 @@
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C64" s="1">
         <v>3.33</v>
@@ -8184,10 +8187,10 @@
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C65" s="1">
         <v>3.33</v>
@@ -8285,10 +8288,10 @@
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C66" s="1">
         <v>3.33</v>
@@ -8386,10 +8389,10 @@
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C67" s="1">
         <v>3.33</v>
@@ -8487,10 +8490,10 @@
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C68" s="1">
         <v>3.33</v>
@@ -8588,10 +8591,10 @@
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C69" s="1">
         <v>3.33</v>
@@ -8689,10 +8692,10 @@
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C70" s="1">
         <v>3.33</v>
@@ -8790,10 +8793,10 @@
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C71" s="1">
         <v>3.33</v>
@@ -8891,10 +8894,10 @@
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C72" s="1">
         <v>0</v>
@@ -8992,10 +8995,10 @@
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C73" s="1">
         <v>3.33</v>
@@ -9093,10 +9096,10 @@
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C74" s="1">
         <v>3.33</v>
@@ -9194,10 +9197,10 @@
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C75" s="1">
         <v>3.33</v>
@@ -9295,10 +9298,10 @@
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C76" s="1">
         <v>3.33</v>
@@ -9396,10 +9399,10 @@
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C77" s="1">
         <v>3.33</v>
@@ -9497,10 +9500,10 @@
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C78" s="1">
         <v>3.33</v>
@@ -9598,10 +9601,10 @@
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C79" s="1">
         <v>3.33</v>
@@ -9699,10 +9702,10 @@
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C80" s="1">
         <v>3.33</v>
@@ -9800,10 +9803,10 @@
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C81" s="1">
         <v>3.33</v>
@@ -9901,10 +9904,10 @@
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C82" s="1">
         <v>3.33</v>
@@ -10002,10 +10005,10 @@
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C83" s="1">
         <v>3.33</v>
@@ -10103,10 +10106,10 @@
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C84" s="1">
         <v>3.33</v>
@@ -10204,10 +10207,10 @@
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C85" s="1">
         <v>3.33</v>
@@ -10305,10 +10308,10 @@
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C86" s="1">
         <v>3.33</v>
@@ -10406,10 +10409,10 @@
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C87" s="1">
         <v>3.33</v>
@@ -10507,10 +10510,10 @@
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C88" s="1">
         <v>3.33</v>
@@ -10608,10 +10611,10 @@
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C89" s="1">
         <v>3.33</v>
@@ -10709,10 +10712,10 @@
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C90" s="1">
         <v>3.33</v>
@@ -10810,10 +10813,10 @@
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C91" s="1">
         <v>3.33</v>
@@ -10911,10 +10914,10 @@
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C92" s="1">
         <v>3.33</v>
@@ -11012,10 +11015,10 @@
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C93" s="1">
         <v>3.33</v>
@@ -11113,10 +11116,10 @@
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C94" s="1">
         <v>3.33</v>
@@ -11214,10 +11217,10 @@
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C95" s="1">
         <v>3.33</v>
@@ -11315,10 +11318,10 @@
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C96" s="1">
         <v>3.33</v>
@@ -11416,10 +11419,10 @@
     </row>
     <row r="97" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C97" s="1">
         <v>0</v>
@@ -11517,10 +11520,10 @@
     </row>
     <row r="98" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C98" s="1">
         <v>3.33</v>
@@ -11618,10 +11621,10 @@
     </row>
     <row r="99" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C99" s="1">
         <v>3.33</v>
@@ -11719,10 +11722,10 @@
     </row>
     <row r="100" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C100" s="1">
         <v>3.33</v>
@@ -11820,10 +11823,10 @@
     </row>
     <row r="101" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C101" s="1">
         <v>3.33</v>
@@ -11921,10 +11924,10 @@
     </row>
     <row r="102" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C102" s="1">
         <v>3.33</v>
@@ -12022,10 +12025,10 @@
     </row>
     <row r="103" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C103" s="1">
         <v>3.33</v>
@@ -12123,10 +12126,10 @@
     </row>
     <row r="104" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C104" s="1">
         <v>3.33</v>
@@ -12224,10 +12227,10 @@
     </row>
     <row r="105" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C105" s="1">
         <v>3.33</v>
@@ -12325,10 +12328,10 @@
     </row>
     <row r="106" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C106" s="1">
         <v>3.33</v>
@@ -12426,10 +12429,10 @@
     </row>
     <row r="107" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C107" s="1">
         <v>3.33</v>
@@ -12527,10 +12530,10 @@
     </row>
     <row r="108" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C108" s="1">
         <v>3.33</v>
@@ -12628,10 +12631,10 @@
     </row>
     <row r="109" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C109" s="1">
         <v>3.33</v>
@@ -12729,10 +12732,10 @@
     </row>
     <row r="110" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C110" s="1">
         <v>3.33</v>
@@ -12830,10 +12833,10 @@
     </row>
     <row r="111" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C111" s="1">
         <v>3.33</v>
@@ -12931,10 +12934,10 @@
     </row>
     <row r="112" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C112" s="1">
         <v>3.33</v>
@@ -13032,10 +13035,10 @@
     </row>
     <row r="113" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C113" s="1">
         <v>3.33</v>
@@ -13133,10 +13136,10 @@
     </row>
     <row r="114" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C114" s="1">
         <v>3.33</v>
@@ -13234,10 +13237,10 @@
     </row>
     <row r="115" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C115" s="1">
         <v>3.33</v>
@@ -13335,10 +13338,10 @@
     </row>
     <row r="116" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C116" s="1">
         <v>3.33</v>
@@ -13436,10 +13439,10 @@
     </row>
     <row r="117" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C117" s="1">
         <v>3.33</v>
@@ -13537,10 +13540,10 @@
     </row>
     <row r="118" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C118" s="1">
         <v>3.33</v>
@@ -13638,10 +13641,10 @@
     </row>
     <row r="119" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C119" s="1">
         <v>3.33</v>
@@ -13739,10 +13742,10 @@
     </row>
     <row r="120" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C120" s="1">
         <v>3.33</v>
@@ -13840,10 +13843,10 @@
     </row>
     <row r="121" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C121" s="1">
         <v>3.33</v>
@@ -13941,10 +13944,10 @@
     </row>
     <row r="122" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C122" s="1">
         <v>0</v>
@@ -14042,10 +14045,10 @@
     </row>
     <row r="123" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C123" s="1">
         <v>3.33</v>
@@ -14143,10 +14146,10 @@
     </row>
     <row r="124" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C124" s="1">
         <v>3.33</v>
@@ -14244,10 +14247,10 @@
     </row>
     <row r="125" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C125" s="1">
         <v>3.33</v>
@@ -14345,10 +14348,10 @@
     </row>
     <row r="126" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C126" s="1">
         <v>3.33</v>
@@ -14446,10 +14449,10 @@
     </row>
     <row r="127" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C127" s="1">
         <v>3.33</v>
@@ -14547,10 +14550,10 @@
     </row>
     <row r="128" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C128" s="1">
         <v>3.33</v>
@@ -14648,10 +14651,10 @@
     </row>
     <row r="129" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C129" s="1">
         <v>3.33</v>
@@ -14749,10 +14752,10 @@
     </row>
     <row r="130" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C130" s="1">
         <v>3.33</v>
@@ -14850,10 +14853,10 @@
     </row>
     <row r="131" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C131" s="1">
         <v>3.33</v>
@@ -14951,10 +14954,10 @@
     </row>
     <row r="132" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C132" s="1">
         <v>0</v>
@@ -15052,10 +15055,10 @@
     </row>
     <row r="133" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C133" s="1">
         <v>3.33</v>
@@ -15153,10 +15156,10 @@
     </row>
     <row r="134" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C134" s="1">
         <v>0</v>
@@ -15254,10 +15257,10 @@
     </row>
     <row r="135" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C135" s="1">
         <v>3.33</v>
@@ -15355,10 +15358,10 @@
     </row>
     <row r="136" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C136" s="1">
         <v>3.33</v>
@@ -15456,10 +15459,10 @@
     </row>
     <row r="137" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C137" s="1">
         <v>3.33</v>
@@ -15557,10 +15560,10 @@
     </row>
     <row r="138" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C138" s="1">
         <v>3.33</v>
@@ -15658,10 +15661,10 @@
     </row>
     <row r="139" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C139" s="1">
         <v>3.33</v>
@@ -15759,10 +15762,10 @@
     </row>
     <row r="140" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C140" s="1">
         <v>3.33</v>
@@ -15860,10 +15863,10 @@
     </row>
     <row r="141" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C141" s="1">
         <v>3.33</v>
@@ -15961,10 +15964,10 @@
     </row>
     <row r="142" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C142" s="1">
         <v>3.33</v>
@@ -16062,10 +16065,10 @@
     </row>
     <row r="143" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C143" s="1">
         <v>0</v>
@@ -16163,10 +16166,10 @@
     </row>
     <row r="144" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C144" s="1">
         <v>3.33</v>
@@ -16264,10 +16267,10 @@
     </row>
     <row r="145" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C145" s="1">
         <v>3.33</v>
@@ -16365,10 +16368,10 @@
     </row>
     <row r="146" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C146" s="1">
         <v>3.33</v>
@@ -16466,10 +16469,10 @@
     </row>
     <row r="147" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C147" s="1">
         <v>3.33</v>
@@ -16567,10 +16570,10 @@
     </row>
     <row r="148" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C148" s="1">
         <v>3.33</v>
@@ -16668,10 +16671,10 @@
     </row>
     <row r="149" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C149" s="1">
         <v>3.33</v>
@@ -16769,10 +16772,10 @@
     </row>
     <row r="150" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C150" s="1">
         <v>3.33</v>
@@ -16870,10 +16873,10 @@
     </row>
     <row r="151" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C151" s="1">
         <v>3.33</v>
@@ -16971,10 +16974,10 @@
     </row>
     <row r="152" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C152" s="1">
         <v>3.33</v>
@@ -17072,10 +17075,10 @@
     </row>
     <row r="153" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C153" s="1">
         <v>3.33</v>
@@ -17173,10 +17176,10 @@
     </row>
     <row r="154" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C154" s="1">
         <v>3.33</v>
@@ -17274,10 +17277,10 @@
     </row>
     <row r="155" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C155" s="1">
         <v>0</v>
@@ -18459,7 +18462,7 @@
         <v>117</v>
       </c>
       <c r="B2" s="1">
-        <v>2.61</v>
+        <v>2.27</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>118</v>
@@ -18497,10 +18500,10 @@
         <v>119</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
+        <v>3.33</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>119</v>
@@ -18526,10 +18529,10 @@
         <v>120</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
+        <v>3.33</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>120</v>
@@ -18555,10 +18558,10 @@
         <v>121</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
+        <v>3.33</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>121</v>
@@ -18584,10 +18587,10 @@
         <v>122</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
+        <v>3.33</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>122</v>
@@ -18796,10 +18799,10 @@
         <v>128</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
+        <v>2.38</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -18828,7 +18831,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>117</v>
@@ -18894,6 +18897,9 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -19040,9 +19046,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="2" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="2" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="1.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="1.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="2" style="1" bestFit="1" customWidth="1"/>
@@ -19052,7 +19056,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>117</v>
@@ -19094,6 +19098,18 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -19261,13 +19277,14 @@
     <col min="7" max="7" width="1.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="1.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="1.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>117</v>
@@ -19310,15 +19327,24 @@
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="M2" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="M3" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
